--- a/docs/ST1/ST1_07.08.24_output.xlsx
+++ b/docs/ST1/ST1_07.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L126"/>
+  <dimension ref="A1:N126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731621974.1201782</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731621977.9561214</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731621974.1201782.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731621977.9561214.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>279.07</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>279.08</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.009999999999990905</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731621978.7736921</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731621979.311722</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731621978.7736921.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731621979.311722.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>279.11</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>279.98</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.8700000000000045</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731621981.7030904</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731621982.9007418</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731621981.7030904.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731621982.9007418.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>280.04</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>280.7</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.6599999999999682</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731621982.9166877</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731621985.219758</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731621982.9166877.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731621985.219758.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>280.7</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>280.66</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.03999999999996362</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731621985.2357152</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731621986.477869</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731621985.2357152.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731621986.477869.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>280.66</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>281.3</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.6399999999999864</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -799,95 +845,107 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731621986.494854</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731621986.494854.png</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731621986.494854.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>281.3</v>
       </c>
-      <c r="J8" t="n">
-        <v>281.3</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>281.39</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.08999999999997499</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731621988.194354</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731621988.8341184</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731621988.194354.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731621988.8341184.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>128.6</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>128.16</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731621994.5746508</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731621994.8109257</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731621994.5746508.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731621994.8109257.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>127.18</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>127.79</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.6099999999999994</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731621995.5423772</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731622000.8735797</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731621995.5423772.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731622000.8735797.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>127.54</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>128.2</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.6599999999999824</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731622003.3582346</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731622004.2852235</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731622003.3582346.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731622004.2852235.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>128.32</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>127.99</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.3299999999999983</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731622004.3021784</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731622006.2883775</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731622004.3021784.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731622006.2883775.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>127.99</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>128.08</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.09000000000001762</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -1103,95 +1185,107 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731622006.3053257</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731622006.3053257.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731622006.3053257.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>128.08</v>
       </c>
-      <c r="J14" t="n">
-        <v>128.08</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>128.61</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.5300000000000011</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731622012.6054926</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731622016.0561156</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622012.6054926.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622016.0561156.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6381.5</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6391</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-9.5</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -1199,51 +1293,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731622016.0730875</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731622016.3971713</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622016.0730875.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622016.3971713.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6391</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6414.5</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>23.5</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -1251,51 +1351,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731622017.0195909</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731622019.8575516</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622017.0195909.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622019.8575516.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6413.5</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>6392.5</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-21</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -1303,51 +1409,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731622019.8745065</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731622021.8592317</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622019.8745065.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622021.8592317.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6392.5</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6400.5</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-8</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -1355,51 +1467,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731622021.8761902</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731622023.5325458</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622021.8761902.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622023.5325458.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6400.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6434.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>34</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -1407,51 +1525,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731622026.0123773</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731622026.3702753</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622026.0123773.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622026.3702753.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6463</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6489.5</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>26.5</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -1459,51 +1583,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731622026.6024542</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731622028.2665677</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622026.6024542.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731622028.2665677.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6470</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6456</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-14</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -1511,51 +1641,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731622033.0258853</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731622034.7902365</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731622033.0258853.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731622034.7902365.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>492.5</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>492.75</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.25</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731622034.8061664</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731622036.4079313</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731622034.8061664.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731622036.4079313.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>492.75</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>493.95</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>1.199999999999989</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731622037.5189617</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731622037.706818</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731622037.5189617.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731622037.706818.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>493.95</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>496.8</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>2.850000000000023</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.58</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731622038.2043693</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731622043.7416456</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731622038.2043693.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731622043.7416456.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>496.05</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>498.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>2.75</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731622043.757633</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731622047.5000634</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731622043.757633.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731622047.5000634.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>498.8</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>503.25</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>-4.449999999999989</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>-0.89</v>
       </c>
     </row>
@@ -1771,43 +1931,49 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731622051.4661767</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731622051.4661767.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731622051.4661767.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>503.8</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>503.8</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1815,51 +1981,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731622054.4047894</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731622056.862526</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731622054.4047894.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731622056.862526.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>223.18</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>222.88</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.3000000000000114</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1867,51 +2039,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731622058.2429032</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731622058.515551</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731622058.2429032.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731622058.515551.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>223.61</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>224.85</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>1.239999999999981</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -1919,51 +2097,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731622058.7983582</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731622066.6638198</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731622058.7983582.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731622066.6638198.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>223.9</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>225.49</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>1.590000000000003</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -1971,51 +2155,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731622066.6797495</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731622067.5850625</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731622066.6797495.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731622067.5850625.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>225.49</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>226.02</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.5300000000000011</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -2023,51 +2213,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731622067.6010203</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731622069.989877</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731622067.6010203.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731622069.989877.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>226.02</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>225.69</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.3300000000000125</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -2075,51 +2271,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731622072.6056795</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731622073.0761776</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622072.6056795.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622073.0761776.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1003.8</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1001.6</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>2.199999999999932</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -2127,51 +2329,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731622074.8582454</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731622076.8346648</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622074.8582454.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622076.8346648.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1000.6</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>999</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>1.600000000000023</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2179,51 +2387,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731622078.6342318</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731622079.089697</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622078.6342318.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622079.089697.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1003</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1006.6</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>3.600000000000023</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -2231,51 +2445,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731622079.5096471</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731622080.386074</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622079.5096471.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622080.386074.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1004.2</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1004</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -2283,51 +2503,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731622080.4030285</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731622081.4403334</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622080.4030285.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622081.4403334.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1004</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1002.8</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>1.200000000000045</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2335,51 +2561,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731622088.1692812</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731622088.9473884</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622088.1692812.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622088.9473884.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1010.2</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1009.4</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.8000000000000682</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -2387,51 +2619,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731622088.9643142</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731622089.3570478</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622088.9643142.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622089.3570478.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1009.4</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1007.2</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>2.199999999999932</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -2439,51 +2677,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731622089.4689593</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731622090.3912337</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622089.4689593.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622090.3912337.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1009</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1007</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>2</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2491,51 +2735,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731622090.774798</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731622092.5325665</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622090.774798.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731622092.5325665.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1009.6</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1011.4</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-1.799999999999955</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -2543,95 +2793,107 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731622092.5495484</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731622092.5495484.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731622092.5495484.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1011.4</v>
       </c>
-      <c r="J42" t="n">
-        <v>1011.4</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1011.2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.1999999999999318</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731622094.1808162</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731622095.535482</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CNY1731622094.1808162.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CNY1731622095.535482.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>11.855</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>11.841</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.01400000000000112</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -2639,51 +2901,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731622102.7935686</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731622104.9176607</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731622102.7935686.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/CNY1731622104.9176607.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>11.906</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>11.919</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.0129999999999999</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2691,51 +2959,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731622110.1561146</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731622112.8965497</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731622110.1561146.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/CNY1731622112.8965497.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>11.899</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>11.889</v>
       </c>
-      <c r="K45" t="n">
-        <v>0.01000000000000156</v>
-      </c>
-      <c r="L45" t="n">
+      <c r="M45" t="n">
+        <v>0.009999999999999787</v>
+      </c>
+      <c r="N45" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2743,51 +3017,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731622112.9134998</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731622113.4614577</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731622112.9134998.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/CNY1731622113.4614577.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>11.889</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>11.899</v>
       </c>
-      <c r="K46" t="n">
-        <v>0.01000000000000156</v>
-      </c>
-      <c r="L46" t="n">
+      <c r="M46" t="n">
+        <v>0.009999999999999787</v>
+      </c>
+      <c r="N46" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -2795,95 +3075,107 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731622113.4793837</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731622113.4793837.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731622113.4793837.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>11.899</v>
       </c>
-      <c r="J47" t="n">
-        <v>11.899</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>11.9</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.001000000000001222</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731622114.4713948</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731622115.8711948</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731622114.4713948.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731622115.8711948.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>124.84</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>123.14</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>1.700000000000003</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>1.36</v>
       </c>
     </row>
@@ -2891,51 +3183,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731622120.572815</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731622120.845685</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731622120.572815.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731622120.845685.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>123.3</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>123.66</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.3599999999999994</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2943,51 +3241,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731622126.4868517</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731622126.908374</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731622126.4868517.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731622126.908374.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>123.08</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>122.86</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -2995,51 +3299,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731622126.9263146</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731622127.6829226</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731622126.9263146.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731622127.6829226.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>122.86</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>123.3</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.4399999999999977</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -3047,51 +3357,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731622128.4966853</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731622131.0265667</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731622128.4966853.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731622131.0265667.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>123.04</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>123.52</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.4799999999999898</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -3099,51 +3415,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731622133.5444064</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731622133.7930942</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731622133.5444064.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731622133.7930942.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>123.78</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>124.16</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.3799999999999955</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -3151,51 +3473,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731622137.7358298</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731622138.9884644</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731622137.7358298.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731622138.9884644.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>158.12</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>157.78</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.3400000000000034</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -3203,51 +3531,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731622141.0037966</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731622142.398256</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731622141.0037966.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731622142.398256.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>159.42</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>159.48</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -3255,51 +3589,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731622142.4152107</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731622143.6679635</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731622142.4152107.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731622143.6679635.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>159.48</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>158.66</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.8199999999999932</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -3307,51 +3647,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731622144.2882106</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731622146.9195442</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731622144.2882106.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731622146.9195442.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>159.08</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>159.82</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-0.7399999999999807</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>-0.47</v>
       </c>
     </row>
@@ -3359,51 +3705,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731622146.9365268</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731622147.23385</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731622146.9365268.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731622147.23385.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>159.82</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>160.1</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.2800000000000011</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -3411,51 +3763,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731622151.1826117</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731622153.5767534</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731622151.1826117.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731622153.5767534.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>160.1</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>160.76</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.6599999999999966</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.41</v>
       </c>
     </row>
@@ -3463,95 +3821,107 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731622154.616227</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731622154.616227.png</t>
         </is>
       </c>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731622154.616227.png</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>160.66</v>
       </c>
-      <c r="J60" t="n">
-        <v>160.66</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>160.34</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-0.3199999999999932</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731622156.0261827</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731622156.5140038</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731622156.0261827.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731622156.5140038.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>49.215</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>49.035</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -3559,51 +3929,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731622167.1376748</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731622167.8088832</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731622167.1376748.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731622167.8088832.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>48.61</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>48.855</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.2449999999999974</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -3611,51 +3987,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731622171.7033205</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731622173.4692836</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731622171.7033205.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731622173.4692836.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>48.905</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>48.93</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.02499999999999858</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -3663,51 +4045,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731622178.6857042</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731622180.165139</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731622178.6857042.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731622180.165139.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>1358.4</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>1356.6</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>1.800000000000182</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3715,51 +4103,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731622182.3749957</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731622183.5969064</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731622182.3749957.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731622183.5969064.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>1371.8</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>1372.2</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.4000000000000909</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3767,51 +4161,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731622183.6133685</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731622184.5249066</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731622183.6133685.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731622184.5249066.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>1372.2</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>1367.2</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>5</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -3819,51 +4219,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731622185.1066883</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731622188.766342</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731622185.1066883.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731622188.766342.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>1369</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>1372.4</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-3.400000000000091</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -3871,51 +4277,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731622193.7096732</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731622196.0240421</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731622193.7096732.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731622196.0240421.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>1378.8</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>1382.4</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-3.600000000000136</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -3923,51 +4335,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731622196.7016811</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731622197.7217267</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622196.7016811.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622197.7217267.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>59.96</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>59.66</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>0.3000000000000043</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -3975,51 +4393,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731622198.5109806</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731622200.3303397</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622198.5109806.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622200.3303397.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>59.74</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>59.55</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.1900000000000048</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -4027,51 +4451,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731622203.056239</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731622203.294361</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622203.056239.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622203.294361.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>60.03</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>60.34</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -4079,51 +4509,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731622203.6385896</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731622206.355231</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622203.6385896.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622206.355231.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>60.2</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>60.09</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>-0.18</v>
       </c>
     </row>
@@ -4131,51 +4567,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731622206.3721862</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731622208.0863452</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622206.3721862.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622208.0863452.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>60.09</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>60.09</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>0</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4183,51 +4625,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731622208.1043262</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731622208.9581745</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622208.1043262.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622208.9581745.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>60.09</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>60.14</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.04999999999999716</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -4235,51 +4683,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731622208.9761271</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731622210.438144</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622208.9761271.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622210.438144.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>60.14</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>60.35</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>-0.2100000000000009</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -4287,51 +4741,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731622210.4560688</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731622211.6594396</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622210.4560688.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622211.6594396.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>60.35</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>60.62</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.269999999999996</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -4339,51 +4799,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731622215.7485387</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731622216.9270399</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622215.7485387.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731622216.9270399.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>61</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>60.78</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-0.2199999999999989</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>-0.36</v>
       </c>
     </row>
@@ -4391,95 +4857,107 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731622216.944992</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731622216.944992.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731622216.944992.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>60.78</v>
       </c>
-      <c r="J78" t="n">
-        <v>60.78</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>60.67</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.1099999999999994</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731622217.856613</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731622219.229683</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622217.856613.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622219.229683.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>96.14</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>95.34999999999999</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.7900000000000063</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.8200000000000001</v>
       </c>
     </row>
@@ -4487,51 +4965,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731622220.2731128</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731622221.287763</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622220.2731128.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622221.287763.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>95.37</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>95.56999999999999</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.1999999999999886</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -4539,51 +5023,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731622221.3057158</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731622222.3848813</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622221.3057158.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622222.3848813.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>95.56999999999999</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>95.48999999999999</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -4591,51 +5081,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731622222.4028928</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731622225.0349941</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622222.4028928.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622225.0349941.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>95.48999999999999</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>96.73</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-1.240000000000009</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>-1.3</v>
       </c>
     </row>
@@ -4643,51 +5139,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731622225.052944</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731622226.9104826</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622225.052944.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622226.9104826.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>96.73</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>96.59</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-0.1400000000000006</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -4695,51 +5197,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731622226.9294033</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731622228.5097966</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622226.9294033.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622228.5097966.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>96.59</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>96.44</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>0.1500000000000057</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -4747,51 +5255,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731622231.7957313</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731622234.3490288</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622231.7957313.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731622234.3490288.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>97.95</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.1499999999999915</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -4799,95 +5313,107 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731622237.7351615</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731622237.7351615.png</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731622237.7351615.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>98.18000000000001</v>
       </c>
-      <c r="J86" t="n">
-        <v>98.18000000000001</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0</v>
-      </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>98.11</v>
+      </c>
+      <c r="M86" t="n">
+        <v>-0.07000000000000739</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731622242.0522406</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731622243.201881</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/SELG1731622242.0522406.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/SELG1731622243.201881.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>55.11</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>55.17</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -4895,51 +5421,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731622243.2198038</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731622251.0194144</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/SELG1731622243.2198038.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/SELG1731622251.0194144.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>55.17</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>55.82</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.6499999999999986</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>1.18</v>
       </c>
     </row>
@@ -4947,51 +5479,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731622252.1218166</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731622258.1081326</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/SELG1731622252.1218166.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/SELG1731622258.1081326.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>55.81</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>56.33</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.519999999999996</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.9299999999999999</v>
       </c>
     </row>
@@ -4999,51 +5537,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731622261.3705328</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731622262.360386</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731622261.3705328.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731622262.360386.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>142.02</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>141.3</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>0.7199999999999989</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>0.51</v>
       </c>
     </row>
@@ -5051,51 +5595,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731622262.3773406</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731622264.1802773</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731622262.3773406.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731622264.1802773.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>141.3</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>143.66</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>2.359999999999985</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>1.67</v>
       </c>
     </row>
@@ -5103,51 +5653,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731622270.1607854</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731622271.390337</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731622270.1607854.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731622271.390337.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>143.48</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>144.24</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>0.7600000000000193</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>0.53</v>
       </c>
     </row>
@@ -5155,95 +5711,107 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731622272.8412683</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731622272.8412683.png</t>
         </is>
       </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731622272.8412683.png</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>145.5</v>
       </c>
-      <c r="J93" t="n">
-        <v>145.5</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>145.96</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.460000000000008</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0.32</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731622277.4022624</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731622278.6560469</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622277.4022624.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622278.6560469.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>19.783</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>19.639</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.1440000000000019</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>0.73</v>
       </c>
     </row>
@@ -5251,51 +5819,57 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" t="n">
+        <v>93</v>
+      </c>
+      <c r="C95" t="n">
+        <v>93</v>
+      </c>
+      <c r="D95" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>1731622279.3934715</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>1731622279.5345407</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622279.3934715.png</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622279.5345407.png</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
         <v>19.65</v>
       </c>
-      <c r="J95" t="n">
+      <c r="L95" t="n">
         <v>19.56</v>
       </c>
-      <c r="K95" t="n">
+      <c r="M95" t="n">
         <v>0.08999999999999986</v>
       </c>
-      <c r="L95" t="n">
+      <c r="N95" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -5303,51 +5877,57 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" t="n">
+        <v>94</v>
+      </c>
+      <c r="C96" t="n">
+        <v>94</v>
+      </c>
+      <c r="D96" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>1731622279.8966093</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>1731622281.9961596</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622279.8966093.png</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="H96" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622281.9961596.png</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
         <v>19.64</v>
       </c>
-      <c r="J96" t="n">
+      <c r="L96" t="n">
         <v>19.553</v>
       </c>
-      <c r="K96" t="n">
+      <c r="M96" t="n">
         <v>0.08699999999999974</v>
       </c>
-      <c r="L96" t="n">
+      <c r="N96" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -5355,51 +5935,57 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" t="n">
+        <v>95</v>
+      </c>
+      <c r="C97" t="n">
+        <v>95</v>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>1731622289.6297321</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>1731622290.1387005</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622289.6297321.png</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="H97" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622290.1387005.png</t>
         </is>
       </c>
-      <c r="G97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
         <v>19.726</v>
       </c>
-      <c r="J97" t="n">
+      <c r="L97" t="n">
         <v>19.787</v>
       </c>
-      <c r="K97" t="n">
+      <c r="M97" t="n">
         <v>0.06099999999999994</v>
       </c>
-      <c r="L97" t="n">
+      <c r="N97" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -5407,51 +5993,57 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" t="n">
+        <v>96</v>
+      </c>
+      <c r="C98" t="n">
+        <v>96</v>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>1731622290.788246</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>1731622292.6038585</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622290.788246.png</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="H98" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622292.6038585.png</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
+      <c r="I98" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
         <v>19.771</v>
       </c>
-      <c r="J98" t="n">
+      <c r="L98" t="n">
         <v>19.819</v>
       </c>
-      <c r="K98" t="n">
+      <c r="M98" t="n">
         <v>0.04799999999999827</v>
       </c>
-      <c r="L98" t="n">
+      <c r="N98" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -5459,51 +6051,57 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" t="n">
+        <v>97</v>
+      </c>
+      <c r="C99" t="n">
+        <v>97</v>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>1731622292.6218107</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>1731622294.0831027</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622292.6218107.png</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731622294.0831027.png</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="I99" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
         <v>19.819</v>
       </c>
-      <c r="J99" t="n">
+      <c r="L99" t="n">
         <v>19.85</v>
       </c>
-      <c r="K99" t="n">
+      <c r="M99" t="n">
         <v>-0.03100000000000236</v>
       </c>
-      <c r="L99" t="n">
+      <c r="N99" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -5511,51 +6109,57 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" t="n">
+        <v>98</v>
+      </c>
+      <c r="C100" t="n">
+        <v>98</v>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>1731622299.0419712</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>1731622301.1369455</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731622299.0419712.png</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="H100" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731622301.1369455.png</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
+      <c r="I100" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
         <v>668.9</v>
       </c>
-      <c r="J100" t="n">
+      <c r="L100" t="n">
         <v>664.8</v>
       </c>
-      <c r="K100" t="n">
+      <c r="M100" t="n">
         <v>-4.100000000000023</v>
       </c>
-      <c r="L100" t="n">
+      <c r="N100" t="n">
         <v>-0.61</v>
       </c>
     </row>
@@ -5563,51 +6167,57 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" t="n">
+        <v>99</v>
+      </c>
+      <c r="C101" t="n">
+        <v>99</v>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>1731622301.154507</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>1731622302.0049236</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731622301.154507.png</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="H101" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731622302.0049236.png</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
+      <c r="I101" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
         <v>664.8</v>
       </c>
-      <c r="J101" t="n">
+      <c r="L101" t="n">
         <v>664.65</v>
       </c>
-      <c r="K101" t="n">
+      <c r="M101" t="n">
         <v>0.1499999999999773</v>
       </c>
-      <c r="L101" t="n">
+      <c r="N101" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -5615,51 +6225,57 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" t="n">
+        <v>100</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>1731622302.0218506</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>1731622303.5466306</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731622302.0218506.png</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="H102" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731622303.5466306.png</t>
         </is>
       </c>
-      <c r="G102" t="inlineStr">
+      <c r="I102" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I102" t="n">
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
         <v>664.65</v>
       </c>
-      <c r="J102" t="n">
+      <c r="L102" t="n">
         <v>665.8</v>
       </c>
-      <c r="K102" t="n">
+      <c r="M102" t="n">
         <v>1.149999999999977</v>
       </c>
-      <c r="L102" t="n">
+      <c r="N102" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -5667,51 +6283,57 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" t="n">
+        <v>101</v>
+      </c>
+      <c r="C103" t="n">
+        <v>101</v>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>1731622304.4603555</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>1731622307.2171323</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731622304.4603555.png</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731622307.2171323.png</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="I103" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I103" t="n">
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
         <v>668.25</v>
       </c>
-      <c r="J103" t="n">
+      <c r="L103" t="n">
         <v>667.65</v>
       </c>
-      <c r="K103" t="n">
+      <c r="M103" t="n">
         <v>-0.6000000000000227</v>
       </c>
-      <c r="L103" t="n">
+      <c r="N103" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -5719,51 +6341,57 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" t="n">
+        <v>102</v>
+      </c>
+      <c r="C104" t="n">
+        <v>102</v>
+      </c>
+      <c r="D104" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>1731622307.235086</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>1731622307.6611135</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731622307.235086.png</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="H104" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731622307.6611135.png</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
+      <c r="I104" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I104" t="n">
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
         <v>667.65</v>
       </c>
-      <c r="J104" t="n">
+      <c r="L104" t="n">
         <v>666.25</v>
       </c>
-      <c r="K104" t="n">
+      <c r="M104" t="n">
         <v>1.399999999999977</v>
       </c>
-      <c r="L104" t="n">
+      <c r="N104" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -5771,51 +6399,57 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="n">
+        <v>103</v>
+      </c>
+      <c r="D105" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>1731622311.248866</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>1731622312.8944378</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731622311.248866.png</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731622312.8944378.png</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="I105" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I105" t="n">
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
         <v>669.15</v>
       </c>
-      <c r="J105" t="n">
+      <c r="L105" t="n">
         <v>668.15</v>
       </c>
-      <c r="K105" t="n">
+      <c r="M105" t="n">
         <v>-1</v>
       </c>
-      <c r="L105" t="n">
+      <c r="N105" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -5823,51 +6457,57 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" t="n">
+        <v>104</v>
+      </c>
+      <c r="C106" t="n">
+        <v>104</v>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>1731622314.0852385</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>1731622316.1125672</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731622314.0852385.png</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731622316.1125672.png</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="I106" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I106" t="n">
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
         <v>670.55</v>
       </c>
-      <c r="J106" t="n">
+      <c r="L106" t="n">
         <v>669.85</v>
       </c>
-      <c r="K106" t="n">
+      <c r="M106" t="n">
         <v>-0.6999999999999318</v>
       </c>
-      <c r="L106" t="n">
+      <c r="N106" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -5875,95 +6515,107 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" t="n">
+        <v>105</v>
+      </c>
+      <c r="C107" t="n">
+        <v>105</v>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>1731622316.1314902</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731622316.1314902.png</t>
         </is>
       </c>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731622316.1314902.png</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
         <v>669.85</v>
       </c>
-      <c r="J107" t="n">
-        <v>669.85</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>674.5</v>
+      </c>
+      <c r="M107" t="n">
+        <v>-4.649999999999977</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" t="n">
+        <v>106</v>
+      </c>
+      <c r="C108" t="n">
+        <v>106</v>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>1731622319.2102373</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>1731622320.6049354</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731622319.2102373.png</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731622320.6049354.png</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="I108" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I108" t="n">
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
         <v>147.76</v>
       </c>
-      <c r="J108" t="n">
+      <c r="L108" t="n">
         <v>145.59</v>
       </c>
-      <c r="K108" t="n">
+      <c r="M108" t="n">
         <v>2.169999999999987</v>
       </c>
-      <c r="L108" t="n">
+      <c r="N108" t="n">
         <v>1.47</v>
       </c>
     </row>
@@ -5971,51 +6623,57 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" t="n">
+        <v>107</v>
+      </c>
+      <c r="C109" t="n">
+        <v>107</v>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>1731622325.2984416</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>1731622325.6319737</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731622325.2984416.png</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731622325.6319737.png</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I109" t="n">
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
         <v>147.29</v>
       </c>
-      <c r="J109" t="n">
+      <c r="L109" t="n">
         <v>148.7</v>
       </c>
-      <c r="K109" t="n">
+      <c r="M109" t="n">
         <v>1.409999999999997</v>
       </c>
-      <c r="L109" t="n">
+      <c r="N109" t="n">
         <v>0.96</v>
       </c>
     </row>
@@ -6023,51 +6681,57 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" t="n">
+        <v>108</v>
+      </c>
+      <c r="C110" t="n">
+        <v>108</v>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>1731622332.61664</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>1731622333.770782</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731622332.61664.png</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731622333.770782.png</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I110" t="n">
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
         <v>149.83</v>
       </c>
-      <c r="J110" t="n">
+      <c r="L110" t="n">
         <v>150.8</v>
       </c>
-      <c r="K110" t="n">
+      <c r="M110" t="n">
         <v>0.9699999999999989</v>
       </c>
-      <c r="L110" t="n">
+      <c r="N110" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -6075,51 +6739,57 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" t="n">
+        <v>109</v>
+      </c>
+      <c r="C111" t="n">
+        <v>109</v>
+      </c>
+      <c r="D111" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>1731622334.8183334</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>1731622336.6529994</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731622334.8183334.png</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731622336.6529994.png</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="I111" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I111" t="n">
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
         <v>151.84</v>
       </c>
-      <c r="J111" t="n">
+      <c r="L111" t="n">
         <v>152.5</v>
       </c>
-      <c r="K111" t="n">
+      <c r="M111" t="n">
         <v>0.6599999999999966</v>
       </c>
-      <c r="L111" t="n">
+      <c r="N111" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -6127,95 +6797,107 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" t="n">
+        <v>110</v>
+      </c>
+      <c r="C112" t="n">
+        <v>110</v>
+      </c>
+      <c r="D112" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>1731622339.1187556</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731622339.1187556.png</t>
         </is>
       </c>
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731622339.1187556.png</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
         <v>155.78</v>
       </c>
-      <c r="J112" t="n">
-        <v>155.78</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0</v>
-      </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>155.8</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.02000000000001023</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" t="n">
+        <v>111</v>
+      </c>
+      <c r="C113" t="n">
+        <v>111</v>
+      </c>
+      <c r="D113" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>1731622340.3086505</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>1731622341.1594572</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>./test_images/FEES1731622340.3086505.png</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>./test_images/FEES1731622341.1594572.png</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
         <v>0.09514</v>
       </c>
-      <c r="J113" t="n">
+      <c r="L113" t="n">
         <v>0.0954</v>
       </c>
-      <c r="K113" t="n">
+      <c r="M113" t="n">
         <v>-0.0002599999999999963</v>
       </c>
-      <c r="L113" t="n">
+      <c r="N113" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -6223,51 +6905,57 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" t="n">
+        <v>112</v>
+      </c>
+      <c r="C114" t="n">
+        <v>112</v>
+      </c>
+      <c r="D114" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>1731622341.1764114</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>1731622342.0583782</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>./test_images/FEES1731622341.1764114.png</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>./test_images/FEES1731622342.0583782.png</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
         <v>0.0954</v>
       </c>
-      <c r="J114" t="n">
+      <c r="L114" t="n">
         <v>0.09536000000000001</v>
       </c>
-      <c r="K114" t="n">
+      <c r="M114" t="n">
         <v>-3.999999999998449e-05</v>
       </c>
-      <c r="L114" t="n">
+      <c r="N114" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -6275,51 +6963,57 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" t="n">
+        <v>113</v>
+      </c>
+      <c r="C115" t="n">
+        <v>113</v>
+      </c>
+      <c r="D115" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>1731622342.0753658</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>1731622343.4531183</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>./test_images/FEES1731622342.0753658.png</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>./test_images/FEES1731622343.4531183.png</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
         <v>0.09536000000000001</v>
       </c>
-      <c r="J115" t="n">
+      <c r="L115" t="n">
         <v>0.09520000000000001</v>
       </c>
-      <c r="K115" t="n">
+      <c r="M115" t="n">
         <v>0.0001600000000000074</v>
       </c>
-      <c r="L115" t="n">
+      <c r="N115" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -6327,51 +7021,57 @@
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" t="n">
+        <v>114</v>
+      </c>
+      <c r="C116" t="n">
+        <v>114</v>
+      </c>
+      <c r="D116" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>1731622343.4711754</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>1731622344.4419515</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>./test_images/FEES1731622343.4711754.png</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>./test_images/FEES1731622344.4419515.png</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
         <v>0.09520000000000001</v>
       </c>
-      <c r="J116" t="n">
+      <c r="L116" t="n">
         <v>0.09520000000000001</v>
       </c>
-      <c r="K116" t="n">
+      <c r="M116" t="n">
         <v>0</v>
       </c>
-      <c r="L116" t="n">
+      <c r="N116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6379,51 +7079,57 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" t="n">
+        <v>115</v>
+      </c>
+      <c r="C117" t="n">
+        <v>115</v>
+      </c>
+      <c r="D117" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>1731622344.459901</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>1731622348.2502308</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>./test_images/FEES1731622344.459901.png</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>./test_images/FEES1731622348.2502308.png</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="I117" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I117" t="n">
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
         <v>0.09520000000000001</v>
       </c>
-      <c r="J117" t="n">
+      <c r="L117" t="n">
         <v>0.09574000000000001</v>
       </c>
-      <c r="K117" t="n">
+      <c r="M117" t="n">
         <v>-0.0005399999999999988</v>
       </c>
-      <c r="L117" t="n">
+      <c r="N117" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -6431,51 +7137,57 @@
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" t="n">
+        <v>116</v>
+      </c>
+      <c r="C118" t="n">
+        <v>116</v>
+      </c>
+      <c r="D118" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>1731622348.9232204</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>1731622352.9391582</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>./test_images/FEES1731622348.9232204.png</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>./test_images/FEES1731622352.9391582.png</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="I118" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I118" t="n">
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
         <v>0.096</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>0.09766000000000001</v>
       </c>
-      <c r="K118" t="n">
+      <c r="M118" t="n">
         <v>-0.001660000000000009</v>
       </c>
-      <c r="L118" t="n">
+      <c r="N118" t="n">
         <v>-1.73</v>
       </c>
     </row>
@@ -6483,51 +7195,57 @@
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" t="n">
+        <v>117</v>
+      </c>
+      <c r="C119" t="n">
+        <v>117</v>
+      </c>
+      <c r="D119" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>1731622352.9571123</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>1731622354.1229627</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>./test_images/FEES1731622352.9571123.png</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>./test_images/FEES1731622354.1229627.png</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="I119" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I119" t="n">
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
         <v>0.09766000000000001</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>0.09744000000000001</v>
       </c>
-      <c r="K119" t="n">
+      <c r="M119" t="n">
         <v>-0.000219999999999998</v>
       </c>
-      <c r="L119" t="n">
+      <c r="N119" t="n">
         <v>-0.23</v>
       </c>
     </row>
@@ -6535,51 +7253,57 @@
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="B120" t="n">
+        <v>118</v>
+      </c>
+      <c r="C120" t="n">
+        <v>118</v>
+      </c>
+      <c r="D120" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>1731622354.1409178</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>1731622356.5599308</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>./test_images/FEES1731622354.1409178.png</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>./test_images/FEES1731622356.5599308.png</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="I120" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I120" t="n">
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
         <v>0.09744000000000001</v>
       </c>
-      <c r="J120" t="n">
+      <c r="L120" t="n">
         <v>0.09712000000000001</v>
       </c>
-      <c r="K120" t="n">
+      <c r="M120" t="n">
         <v>0.0003200000000000008</v>
       </c>
-      <c r="L120" t="n">
+      <c r="N120" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -6587,95 +7311,107 @@
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="B121" t="n">
+        <v>119</v>
+      </c>
+      <c r="C121" t="n">
+        <v>119</v>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>1731622358.9357457</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>./test_images/FEES1731622358.9357457.png</t>
         </is>
       </c>
       <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr">
         <is>
+          <t>./test_images/FEES1731622358.9357457.png</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I121" t="n">
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
         <v>0.0975</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.0975</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>0.09752</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1.999999999999225e-05</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="B122" t="n">
+        <v>120</v>
+      </c>
+      <c r="C122" t="n">
+        <v>120</v>
+      </c>
+      <c r="D122" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>1731622360.2591817</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>1731622361.6060593</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>./test_images/MXI1731622360.2591817.png</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>./test_images/MXI1731622361.6060593.png</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="I122" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I122" t="n">
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
         <v>2899.45</v>
       </c>
-      <c r="J122" t="n">
+      <c r="L122" t="n">
         <v>2878.75</v>
       </c>
-      <c r="K122" t="n">
+      <c r="M122" t="n">
         <v>20.69999999999982</v>
       </c>
-      <c r="L122" t="n">
+      <c r="N122" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -6683,51 +7419,57 @@
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="B123" t="n">
+        <v>121</v>
+      </c>
+      <c r="C123" t="n">
+        <v>121</v>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>1731622364.3945434</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>1731622368.2419364</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>./test_images/MXI1731622364.3945434.png</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>./test_images/MXI1731622368.2419364.png</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="I123" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
         <v>2873.9</v>
       </c>
-      <c r="J123" t="n">
+      <c r="L123" t="n">
         <v>2891.1</v>
       </c>
-      <c r="K123" t="n">
+      <c r="M123" t="n">
         <v>-17.19999999999982</v>
       </c>
-      <c r="L123" t="n">
+      <c r="N123" t="n">
         <v>-0.6</v>
       </c>
     </row>
@@ -6735,51 +7477,57 @@
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="B124" t="n">
+        <v>122</v>
+      </c>
+      <c r="C124" t="n">
+        <v>122</v>
+      </c>
+      <c r="D124" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>1731622370.0881038</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>1731622370.9815946</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>./test_images/MXI1731622370.0881038.png</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>./test_images/MXI1731622370.9815946.png</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="I124" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
         <v>2887</v>
       </c>
-      <c r="J124" t="n">
+      <c r="L124" t="n">
         <v>2895.5</v>
       </c>
-      <c r="K124" t="n">
+      <c r="M124" t="n">
         <v>8.5</v>
       </c>
-      <c r="L124" t="n">
+      <c r="N124" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -6787,51 +7535,57 @@
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="B125" t="n">
+        <v>123</v>
+      </c>
+      <c r="C125" t="n">
+        <v>123</v>
+      </c>
+      <c r="D125" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>1731622371.5302162</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>1731622372.196995</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>./test_images/MXI1731622371.5302162.png</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>./test_images/MXI1731622372.196995.png</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="I125" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I125" t="n">
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
         <v>2891.35</v>
       </c>
-      <c r="J125" t="n">
+      <c r="L125" t="n">
         <v>2904.3</v>
       </c>
-      <c r="K125" t="n">
+      <c r="M125" t="n">
         <v>12.95000000000027</v>
       </c>
-      <c r="L125" t="n">
+      <c r="N125" t="n">
         <v>0.45</v>
       </c>
     </row>
@@ -6839,44 +7593,50 @@
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" t="n">
+        <v>124</v>
+      </c>
+      <c r="C126" t="n">
+        <v>124</v>
+      </c>
+      <c r="D126" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>1731622375.769735</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731622375.769735.png</t>
         </is>
       </c>
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731622375.769735.png</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I126" t="n">
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
         <v>2912.35</v>
       </c>
-      <c r="J126" t="n">
-        <v>2912.35</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0</v>
-      </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>2919.65</v>
+      </c>
+      <c r="M126" t="n">
+        <v>7.300000000000182</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -6937,19 +7697,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5800000000000054</v>
+        <v>0.6900000000000048</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05800000000000054</v>
+        <v>0.06900000000000048</v>
       </c>
       <c r="E2" t="n">
-        <v>0.98</v>
+        <v>1.16</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -6959,16 +7719,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.999999999999886</v>
+        <v>9.799999999999955</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999999999999887</v>
+        <v>0.9799999999999954</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="F3" t="n">
         <v>0.1</v>
@@ -6981,16 +7741,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.002239999999999978</v>
+        <v>-0.002219999999999986</v>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0002488888888888864</v>
+        <v>-0.0002466666666666651</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.34</v>
+        <v>-2.32</v>
       </c>
       <c r="F4" t="n">
         <v>-0.26</v>
@@ -7003,16 +7763,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.5699999999999932</v>
+        <v>-0.6400000000000006</v>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.07124999999999915</v>
+        <v>-0.08000000000000007</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.6</v>
+        <v>-0.67</v>
       </c>
       <c r="F5" t="n">
         <v>-0.08</v>
@@ -7025,19 +7785,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3.700000000000045</v>
+        <v>-8.350000000000023</v>
       </c>
       <c r="C6" t="n">
         <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4625000000000057</v>
+        <v>-1.043750000000003</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.55</v>
+        <v>-1.24</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="7">
@@ -7047,19 +7807,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.420000000000016</v>
+        <v>1.100000000000023</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2028571428571451</v>
+        <v>0.1571428571428604</v>
       </c>
       <c r="E7" t="n">
-        <v>0.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="8">
@@ -7113,19 +7873,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.129999999999995</v>
+        <v>1.599999999999994</v>
       </c>
       <c r="C10" t="n">
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3549999999999993</v>
+        <v>0.2666666666666657</v>
       </c>
       <c r="E10" t="n">
-        <v>1.67</v>
+        <v>1.26</v>
       </c>
       <c r="F10" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="11">
@@ -7157,19 +7917,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.4599999999999227</v>
+        <v>-0.3699999999999477</v>
       </c>
       <c r="C12" t="n">
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.07666666666665378</v>
+        <v>-0.06166666666665795</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.17</v>
+        <v>-0.14</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.03</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="13">
@@ -7201,16 +7961,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.20999999999998</v>
+        <v>5.22999999999999</v>
       </c>
       <c r="C14" t="n">
         <v>5</v>
       </c>
       <c r="D14" t="n">
-        <v>1.041999999999996</v>
+        <v>1.045999999999998</v>
       </c>
       <c r="E14" t="n">
-        <v>3.51</v>
+        <v>3.52</v>
       </c>
       <c r="F14" t="n">
         <v>0.7</v>
@@ -7223,19 +7983,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.95000000000027</v>
+        <v>32.25000000000045</v>
       </c>
       <c r="C15" t="n">
         <v>5</v>
       </c>
       <c r="D15" t="n">
-        <v>4.990000000000054</v>
+        <v>6.450000000000091</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="16">
@@ -7267,16 +8027,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.04700000000000415</v>
+        <v>0.04599999999999937</v>
       </c>
       <c r="C17" t="n">
         <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00940000000000083</v>
+        <v>0.009199999999999875</v>
       </c>
       <c r="E17" t="n">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="F17" t="n">
         <v>0.08</v>
@@ -7311,19 +8071,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.840000000000003</v>
+        <v>4.300000000000011</v>
       </c>
       <c r="C19" t="n">
         <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9600000000000009</v>
+        <v>1.075000000000003</v>
       </c>
       <c r="E19" t="n">
-        <v>2.71</v>
+        <v>3.03</v>
       </c>
       <c r="F19" t="n">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="20">
